--- a/scripts/modeltools/exports/Scenario_Results.xlsx
+++ b/scripts/modeltools/exports/Scenario_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\CDM\scripts\modeltools\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EE16CD-6770-46DE-8D22-BDBCC24E8583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69CC9A-997E-4FF8-A3FF-44ACA9201CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{AB718105-107C-43D2-99B7-2FF2B3DDDF7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB718105-107C-43D2-99B7-2FF2B3DDDF7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="171">
   <si>
     <t>Critical CPS</t>
   </si>
@@ -590,12 +590,75 @@
   <si>
     <t>No SE</t>
   </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>Life stage: turion viability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A - continuous </t>
+  </si>
+  <si>
+    <t>Jan-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSI × Area </t>
+  </si>
+  <si>
+    <t>HSI × Area</t>
+  </si>
+  <si>
+    <t>Life stage: seed germination</t>
+  </si>
+  <si>
+    <t>Life stage: Turion sprouting</t>
+  </si>
+  <si>
+    <t>Life stage: Adult plant growth</t>
+  </si>
+  <si>
+    <t>Life stage: Flowering</t>
+  </si>
+  <si>
+    <t>Life stage: Turion production</t>
+  </si>
+  <si>
+    <t>Life stage: Seedbank production</t>
+  </si>
+  <si>
+    <t>Lifecycle</t>
+  </si>
+  <si>
+    <t>June-Dec</t>
+  </si>
+  <si>
+    <t>Ruppia (adult growth)</t>
+  </si>
+  <si>
+    <t>N/A – continuous</t>
+  </si>
+  <si>
+    <t>Apr–Sept (model period with precursor stages)</t>
+  </si>
+  <si>
+    <t>Ruppia (turion) - asexual lifecyle</t>
+  </si>
+  <si>
+    <t>Turion production: June-Dec (model period with precursor stages)</t>
+  </si>
+  <si>
+    <t>HSI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,8 +699,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,8 +748,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -690,47 +770,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,32 +788,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,46 +1150,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3323FCED-6F7F-45C8-A947-57EDCFA88034}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="44" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="44.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="31" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="22.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -1129,1848 +1201,3057 @@
       <c r="J1" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="K1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B23" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E23" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G23" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G24" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B25" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D25" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G25" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B26" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G26" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B27" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D27" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E27" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G27" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G28" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B29" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D29" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G29" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D30" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G30" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B32" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F32" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G32" s="14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B33" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F33" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G33" s="15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B34" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D34" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E34" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F34" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G34" s="14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B35" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D35" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E35" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F35" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G35" s="14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B36" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D36" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F36" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G36" s="15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B38" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C38" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D38" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E38" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F38" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G38" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="H17">
+      <c r="H38" s="16">
         <v>39.570500000000003</v>
       </c>
-      <c r="I17">
+      <c r="I38" s="16">
         <v>18.083400000000001</v>
       </c>
-      <c r="J17">
+      <c r="J38" s="16">
         <v>39.570500000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+      <c r="K38">
+        <v>93.049800000000005</v>
+      </c>
+      <c r="L38">
+        <v>6.3573000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B39" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D39" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E39" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F39" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G39" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H18">
+      <c r="H39" s="16">
         <v>55.456800000000001</v>
       </c>
-      <c r="I18">
+      <c r="I39" s="16">
         <v>14.7658</v>
       </c>
-      <c r="J18">
+      <c r="J39" s="16">
         <v>55.519300000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="K39">
+        <v>66.274900000000002</v>
+      </c>
+      <c r="L39">
+        <v>7.2572999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B40" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C40" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D40" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E40" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F40" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G40" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="H19">
+      <c r="H40" s="16">
         <v>106.744</v>
       </c>
-      <c r="I19">
+      <c r="I40" s="16">
         <v>73.2346</v>
       </c>
-      <c r="J19">
+      <c r="J40" s="16">
         <v>106.744</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+      <c r="K40">
+        <v>118.3853</v>
+      </c>
+      <c r="L40">
+        <v>67.036900000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B41" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C41" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D41" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E41" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F41" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G41" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="H20">
+      <c r="H41" s="16">
         <v>85.593400000000003</v>
       </c>
-      <c r="I20">
+      <c r="I41" s="16">
         <v>60.408999999999999</v>
       </c>
-      <c r="J20">
+      <c r="J41" s="16">
         <v>85.721500000000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
+      <c r="K41">
+        <v>102.96080000000001</v>
+      </c>
+      <c r="L41">
+        <v>50.825899999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B42" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C42" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D42" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E42" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F42" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G42" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H21">
+      <c r="H42" s="16">
         <v>184.9444</v>
       </c>
-      <c r="I21">
+      <c r="I42" s="16">
         <v>127.2024</v>
       </c>
-      <c r="J21">
+      <c r="J42" s="16">
         <v>184.9444</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+      <c r="K42">
+        <v>204.44479999999999</v>
+      </c>
+      <c r="L42">
+        <v>120.4072</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B43" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C43" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D43" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E43" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F43" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G43" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H22">
+      <c r="H43" s="16">
         <v>166.74610000000001</v>
       </c>
-      <c r="I22">
+      <c r="I43" s="16">
         <v>108.8377</v>
       </c>
-      <c r="J22">
+      <c r="J43" s="16">
         <v>166.86779999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
+      <c r="K43">
+        <v>198.9032</v>
+      </c>
+      <c r="L43">
+        <v>100.2923</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B45" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C45" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D45" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E45" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F45" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G45" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H24">
+      <c r="H45" s="16">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I24">
+      <c r="I45" s="16">
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="J45" s="16">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
+      <c r="K45">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B46" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C46" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D46" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E46" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F46" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G46" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H25">
+      <c r="H46" s="16">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="I25">
+      <c r="I46" s="16">
         <v>0.18210000000000001</v>
       </c>
-      <c r="J25">
+      <c r="J46" s="16">
         <v>6.7699999999999996E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+      <c r="K46">
+        <v>3.56E-2</v>
+      </c>
+      <c r="L46">
+        <v>7.6899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B48" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C48" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D48" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E48" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F48" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G48" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H27">
+      <c r="H48" s="16">
         <v>49.973300000000002</v>
       </c>
-      <c r="I27">
+      <c r="I48" s="16">
         <v>13.489599999999999</v>
       </c>
-      <c r="J27">
+      <c r="J48" s="16">
         <v>49.973300000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+      <c r="K48">
+        <v>67.262299999999996</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B49" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C49" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D49" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E49" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F49" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G49" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H28">
+      <c r="H49" s="16">
         <v>44.3797</v>
       </c>
-      <c r="I28">
+      <c r="I49" s="16">
         <v>16.272500000000001</v>
       </c>
-      <c r="J28">
+      <c r="J49" s="16">
         <v>44.383600000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
+      <c r="K49">
+        <v>51.970199999999998</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B50" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C50" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D50" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E50" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F50" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G50" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H29">
+      <c r="H50" s="16">
         <v>77.957700000000003</v>
       </c>
-      <c r="I29">
+      <c r="I50" s="16">
         <v>68.004800000000003</v>
       </c>
-      <c r="J29">
+      <c r="J50" s="16">
         <v>77.957700000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
+      <c r="K50">
+        <v>79.790999999999997</v>
+      </c>
+      <c r="L50">
+        <v>68.596699999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B51" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C51" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D51" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E51" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F51" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G51" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H30">
+      <c r="H51" s="16">
         <v>62.791699999999999</v>
       </c>
-      <c r="I30">
+      <c r="I51" s="16">
         <v>47.2791</v>
       </c>
-      <c r="J30">
+      <c r="J51" s="16">
         <v>62.822299999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+      <c r="K51">
+        <v>71.504999999999995</v>
+      </c>
+      <c r="L51">
+        <v>60.536499999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B52" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C52" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D52" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E52" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F52" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G52" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H31">
+      <c r="H52" s="16">
         <v>100.44499999999999</v>
       </c>
-      <c r="I31">
+      <c r="I52" s="16">
         <v>94.471500000000006</v>
       </c>
-      <c r="J31">
+      <c r="J52" s="16">
         <v>100.44499999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+      <c r="K52">
+        <v>111.3618</v>
+      </c>
+      <c r="L52">
+        <v>95.617500000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B53" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C53" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D53" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E53" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F53" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G53" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H32">
+      <c r="H53" s="16">
         <v>101.7153</v>
       </c>
-      <c r="I32">
+      <c r="I53" s="16">
         <v>93.366100000000003</v>
       </c>
-      <c r="J32">
+      <c r="J53" s="16">
         <v>101.7154</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+      <c r="K53">
+        <v>113.4136</v>
+      </c>
+      <c r="L53">
+        <v>93.053600000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B54" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C54" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D54" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E54" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F54" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G54" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H33">
+      <c r="H54" s="16">
         <v>117.6296</v>
       </c>
-      <c r="I33">
+      <c r="I54" s="16">
         <v>109.78060000000001</v>
       </c>
-      <c r="J33">
+      <c r="J54" s="16">
         <v>117.6296</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+      <c r="K54">
+        <v>118.822</v>
+      </c>
+      <c r="L54">
+        <v>107.5343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B55" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C55" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D55" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E55" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F55" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G55" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H34">
+      <c r="H55" s="16">
         <v>57.528300000000002</v>
       </c>
-      <c r="I34">
+      <c r="I55" s="16">
         <v>43.029000000000003</v>
       </c>
-      <c r="J34">
+      <c r="J55" s="16">
         <v>57.625100000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
+      <c r="K55">
+        <v>67.239800000000002</v>
+      </c>
+      <c r="L55">
+        <v>36.478299999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B56" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C56" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D56" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E56" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F56" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G56" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H35">
+      <c r="H56" s="16">
         <v>105.42270000000001</v>
       </c>
-      <c r="I35">
+      <c r="I56" s="16">
         <v>97.070499999999996</v>
       </c>
-      <c r="J35">
+      <c r="J56" s="16">
         <v>105.4228</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
+      <c r="K56">
+        <v>115.0843</v>
+      </c>
+      <c r="L56">
+        <v>97.089699999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B57" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C57" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D57" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E57" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F57" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G57" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H36">
+      <c r="H57" s="16">
         <v>71.6828</v>
       </c>
-      <c r="I36">
+      <c r="I57" s="16">
         <v>57.012599999999999</v>
       </c>
-      <c r="J36">
+      <c r="J57" s="16">
         <v>71.6828</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
+      <c r="K57">
+        <v>75.618899999999996</v>
+      </c>
+      <c r="L57">
+        <v>63.1524</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B59" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C59" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D59" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E59" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F59" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G59" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H38">
+      <c r="H59" s="16">
         <v>0</v>
       </c>
-      <c r="I38">
+      <c r="I59" s="16">
         <v>0</v>
       </c>
-      <c r="J38">
+      <c r="J59" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B61" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C61" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D61" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E61" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F61" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G61" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H40">
+      <c r="H61" s="16">
         <v>100</v>
       </c>
-      <c r="I40">
+      <c r="I61" s="16">
         <v>100</v>
       </c>
-      <c r="J40">
+      <c r="J61" s="16">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
+      <c r="K61">
+        <v>100</v>
+      </c>
+      <c r="L61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B62" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C62" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D62" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E62" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F62" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G62" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H41">
+      <c r="H62" s="16">
         <v>100</v>
       </c>
-      <c r="I41">
+      <c r="I62" s="16">
         <v>100</v>
       </c>
-      <c r="J41">
+      <c r="J62" s="16">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
+      <c r="K62">
+        <v>100</v>
+      </c>
+      <c r="L62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B63" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C63" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D63" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E63" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F63" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G63" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H42">
+      <c r="H63" s="16">
         <v>24.0566</v>
       </c>
-      <c r="I42">
+      <c r="I63" s="16">
         <v>14.6226</v>
       </c>
-      <c r="J42">
+      <c r="J63" s="16">
         <v>24.0566</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
+      <c r="K63">
+        <v>28.3019</v>
+      </c>
+      <c r="L63">
+        <v>8.9623000000000008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B64" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D64" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E64" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F64" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G64" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="H43">
+      <c r="H64" s="16">
         <v>39.622599999999998</v>
       </c>
-      <c r="I43">
+      <c r="I64" s="16">
         <v>22.169799999999999</v>
       </c>
-      <c r="J43">
+      <c r="J64" s="16">
         <v>39.622599999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
+      <c r="K64">
+        <v>41.981099999999998</v>
+      </c>
+      <c r="L64">
+        <v>14.6226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B65" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C65" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D65" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E65" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F65" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G65" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H44">
+      <c r="H65" s="16">
         <v>0</v>
       </c>
-      <c r="I44">
+      <c r="I65" s="16">
         <v>0</v>
       </c>
-      <c r="J44">
+      <c r="J65" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B66" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C66" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D66" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E66" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F66" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G66" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H45">
+      <c r="H66" s="16">
         <v>100</v>
       </c>
-      <c r="I45">
+      <c r="I66" s="16">
         <v>100</v>
       </c>
-      <c r="J45">
+      <c r="J66" s="16">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
+      <c r="K66">
+        <v>100</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B68" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C68" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D68" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E68" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F68" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G68" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H47">
+      <c r="H68" s="16">
         <v>97.267799999999994</v>
       </c>
-      <c r="I47">
+      <c r="I68" s="16">
         <v>89.617500000000007</v>
       </c>
-      <c r="J47">
+      <c r="J68" s="16">
         <v>97.267799999999994</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
+      <c r="K68">
+        <v>98.9071</v>
+      </c>
+      <c r="L68">
+        <v>84.6995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B69" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C69" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D69" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E69" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F69" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G69" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H48">
+      <c r="H69" s="16">
         <v>40.109900000000003</v>
       </c>
-      <c r="I48">
+      <c r="I69" s="16">
         <v>23.076899999999998</v>
       </c>
-      <c r="J48">
+      <c r="J69" s="16">
         <v>39.560400000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
+      <c r="K69">
+        <v>40.109900000000003</v>
+      </c>
+      <c r="L69">
+        <v>13.7363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B71" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C71" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D71" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E71" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F71" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G71" s="15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B72" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C72" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D72" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E72" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F72" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G72" s="14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B74" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C74" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D74" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E74" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F74" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G74" s="14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
+      <c r="H74" s="16">
+        <v>2587.1439999999998</v>
+      </c>
+      <c r="I74" s="16">
+        <v>2997.8051</v>
+      </c>
+      <c r="J74" s="16">
+        <v>2589.886</v>
+      </c>
+      <c r="K74">
+        <v>2532.9160000000002</v>
+      </c>
+      <c r="L74">
+        <v>3216.6961999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B75" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C75" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D75" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E75" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F75" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G75" s="15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
+      <c r="H75" s="16">
+        <v>3371.7710000000002</v>
+      </c>
+      <c r="I75" s="16">
+        <v>3831.4337</v>
+      </c>
+      <c r="J75" s="16">
+        <v>3374.3874000000001</v>
+      </c>
+      <c r="K75">
+        <v>3309.9659999999999</v>
+      </c>
+      <c r="L75">
+        <v>4075.6783999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B76" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C76" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D76" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E76" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F76" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G76" s="15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
+      <c r="H76" s="16">
+        <v>7927.5046000000002</v>
+      </c>
+      <c r="I76" s="16">
+        <v>6644.1750000000002</v>
+      </c>
+      <c r="J76" s="16">
+        <v>7927.5046000000002</v>
+      </c>
+      <c r="K76">
+        <v>8211.9550999999992</v>
+      </c>
+      <c r="L76">
+        <v>6186.6490999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B77" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C77" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D77" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E77" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F77" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G77" s="14" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
+      <c r="H77" s="16">
+        <v>5574.6918999999998</v>
+      </c>
+      <c r="I77" s="16">
+        <v>3135.7692999999999</v>
+      </c>
+      <c r="J77" s="16">
+        <v>5579.4000999999998</v>
+      </c>
+      <c r="K77">
+        <v>6517.7440999999999</v>
+      </c>
+      <c r="L77">
+        <v>2117.8793000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B78" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C78" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D78" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E78" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F78" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G78" s="15" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
+      <c r="H78" s="16">
+        <v>10745.921700000001</v>
+      </c>
+      <c r="I78" s="16">
+        <v>10224.4136</v>
+      </c>
+      <c r="J78" s="16">
+        <v>10745.921700000001</v>
+      </c>
+      <c r="K78">
+        <v>10844.952499999999</v>
+      </c>
+      <c r="L78">
+        <v>9761.7330000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B79" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C79" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D79" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E79" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F79" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G79" s="14" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="1" t="s">
+      <c r="H79" s="16">
+        <v>9925.2494999999999</v>
+      </c>
+      <c r="I79" s="16">
+        <v>5573.0412999999999</v>
+      </c>
+      <c r="J79" s="16">
+        <v>9930.7656000000006</v>
+      </c>
+      <c r="K79">
+        <v>10260.0533</v>
+      </c>
+      <c r="L79">
+        <v>4370.9804999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B80" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C80" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D80" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E80" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F80" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G80" s="15" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="1" t="s">
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B81" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C81" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D81" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E81" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F81" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G81" s="14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="1" t="s">
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B82" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C82" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D82" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E82" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F82" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G82" s="15" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B83" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C83" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D83" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E83" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F83" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G83" s="14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B85" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C85" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D85" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E85" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F85" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G85" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H64">
+      <c r="H85" s="16">
         <v>6.7295999999999996</v>
       </c>
-      <c r="I64">
+      <c r="I85" s="16">
         <v>18.209299999999999</v>
       </c>
-      <c r="J64">
+      <c r="J85" s="16">
         <v>6.7733999999999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="66" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
+      <c r="K85">
+        <v>3.5562999999999998</v>
+      </c>
+      <c r="L85">
+        <v>7.6878000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B87" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C87" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D87" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E87" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F87" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G87" s="14" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="1" t="s">
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B88" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C88" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D88" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E88" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F88" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G88" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B89" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C89" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D89" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E89" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F89" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G89" s="14" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B90" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C90" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D90" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E90" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F90" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G90" s="15" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="1" t="s">
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B91" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C91" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D91" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E91" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F91" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G91" s="15" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="72" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B93" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C93" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D93" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E93" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F93" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G93" s="14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="1" t="s">
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B94" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C94" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D94" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E94" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F94" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G94" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="1" t="s">
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B95" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C95" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D95" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E95" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F95" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G95" s="14" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B96" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C96" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D96" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E96" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F96" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G96" s="14" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="77" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B98" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C98" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D98" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E98" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F98" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G98" s="14" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="79" spans="1:10" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B100" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C100" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D100" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E100" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F100" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G100" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H79">
+      <c r="H100" s="16">
         <v>3.8160599999999998</v>
       </c>
-      <c r="I79">
+      <c r="I100" s="16">
         <v>3.92754</v>
       </c>
-      <c r="J79">
+      <c r="J100" s="16">
         <v>3.8160599999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="1" t="s">
+      <c r="K100">
+        <v>4.0979400000000004</v>
+      </c>
+      <c r="L100">
+        <v>3.9694199999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B101" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C101" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D101" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E101" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F101" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G101" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="H80">
+      <c r="H101" s="16">
         <v>9.0234000000000005</v>
       </c>
-      <c r="I80">
+      <c r="I101" s="16">
         <v>11.540190000000001</v>
       </c>
-      <c r="J80">
+      <c r="J101" s="16">
         <v>9.0192800000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="1" t="s">
+      <c r="K101">
+        <v>8.4071800000000003</v>
+      </c>
+      <c r="L101">
+        <v>13.09352</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B102" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C102" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D102" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E102" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F102" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G102" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H81">
+      <c r="H102" s="16">
         <v>24.45495</v>
       </c>
-      <c r="I81">
+      <c r="I102" s="16">
         <v>32.115299999999998</v>
       </c>
-      <c r="J81">
+      <c r="J102" s="16">
         <v>24.45495</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="1" t="s">
+      <c r="K102">
+        <v>21.699919999999999</v>
+      </c>
+      <c r="L102">
+        <v>34.323300000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B103" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C103" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D103" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E103" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F103" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G103" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="H82">
+      <c r="H103" s="16">
         <v>45.18683</v>
       </c>
-      <c r="I82">
+      <c r="I103" s="16">
         <v>62.286200000000001</v>
       </c>
-      <c r="J82">
+      <c r="J103" s="16">
         <v>45.276060000000001</v>
+      </c>
+      <c r="K103">
+        <v>40.492989999999999</v>
+      </c>
+      <c r="L103">
+        <v>66.184269999999998</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/modeltools/exports/Scenario_Results.xlsx
+++ b/scripts/modeltools/exports/Scenario_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\CDM\scripts\modeltools\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69CC9A-997E-4FF8-A3FF-44ACA9201CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7E56EE-1819-41C3-AB95-7A9EED369E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB718105-107C-43D2-99B7-2FF2B3DDDF7D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="173">
   <si>
     <t>Critical CPS</t>
   </si>
@@ -312,9 +312,6 @@
     <t>Salt Creek flow is &gt;3 ML/day and CSL is &gt;+0.4 m AHD or Salt Creek flow &gt;2 ML/day and CSL is &gt;+0.8 m AHD</t>
   </si>
   <si>
-    <t>% of days where Salt Creek flow is &gt;3 ML/day and average CSL is &gt;+0.4 m AHD or Salt Creek flow is &gt;2 ML/day and average CSL is &gt;+0.8 m AHD</t>
-  </si>
-  <si>
     <t>Export 8</t>
   </si>
   <si>
@@ -337,9 +334,6 @@
   </si>
   <si>
     <t>6.5 mg/L</t>
-  </si>
-  <si>
-    <t>ME, CNL</t>
   </si>
   <si>
     <t>Average daily area (HA) that minimum DO is ≥6.5 mg/L</t>
@@ -652,6 +646,18 @@
   </si>
   <si>
     <t>HSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of days where Salt Creek flow is &gt;3 ML/day and average CSL is &gt;+0.4 m AHD </t>
+  </si>
+  <si>
+    <t>% of days whereSalt Creek flow is &gt;2 ML/day and average CSL is &gt;+0.8 m AHD</t>
+  </si>
+  <si>
+    <t>% of days where Salt Creek flow is &gt;3 ML/day and average CSL is &gt;+0.4 m AHD</t>
+  </si>
+  <si>
+    <t>% of days where Salt Creek flow is &gt;2 ML/day and average CSL is &gt;+0.8 m AHD</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3323FCED-6F7F-45C8-A947-57EDCFA88034}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="44.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1193,42 +1199,42 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -1239,25 +1245,25 @@
     </row>
     <row r="3" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1268,16 +1274,16 @@
     </row>
     <row r="4" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>22</v>
@@ -1286,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -1297,16 +1303,16 @@
     </row>
     <row r="5" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>22</v>
@@ -1315,7 +1321,7 @@
         <v>74</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -1326,16 +1332,16 @@
     </row>
     <row r="6" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>22</v>
@@ -1344,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1355,16 +1361,16 @@
     </row>
     <row r="7" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>22</v>
@@ -1373,7 +1379,7 @@
         <v>74</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1384,16 +1390,16 @@
     </row>
     <row r="8" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>24</v>
@@ -1402,7 +1408,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1413,16 +1419,16 @@
     </row>
     <row r="9" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>24</v>
@@ -1431,7 +1437,7 @@
         <v>74</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1442,16 +1448,16 @@
     </row>
     <row r="10" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>25</v>
@@ -1460,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1471,16 +1477,16 @@
     </row>
     <row r="11" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>25</v>
@@ -1489,7 +1495,7 @@
         <v>74</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1500,16 +1506,16 @@
     </row>
     <row r="12" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>25</v>
@@ -1518,7 +1524,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1529,16 +1535,16 @@
     </row>
     <row r="13" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>25</v>
@@ -1547,7 +1553,7 @@
         <v>74</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1558,16 +1564,16 @@
     </row>
     <row r="14" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>25</v>
@@ -1576,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1587,16 +1593,16 @@
     </row>
     <row r="15" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>25</v>
@@ -1605,7 +1611,7 @@
         <v>74</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1616,25 +1622,25 @@
     </row>
     <row r="16" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>74</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -1645,25 +1651,25 @@
     </row>
     <row r="17" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1674,25 +1680,25 @@
     </row>
     <row r="18" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -1703,25 +1709,25 @@
     </row>
     <row r="19" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1732,25 +1738,25 @@
     </row>
     <row r="20" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -1761,25 +1767,25 @@
     </row>
     <row r="21" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>74</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -2062,7 +2068,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2090,7 +2096,7 @@
         <v>23</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2118,7 +2124,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -2146,7 +2152,7 @@
         <v>28</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2174,7 +2180,7 @@
         <v>28</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2216,7 +2222,7 @@
         <v>28</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H38" s="16">
         <v>39.570500000000003</v>
@@ -2254,7 +2260,7 @@
         <v>28</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H39" s="16">
         <v>55.456800000000001</v>
@@ -2292,7 +2298,7 @@
         <v>28</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H40" s="16">
         <v>106.744</v>
@@ -2330,7 +2336,7 @@
         <v>28</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H41" s="16">
         <v>85.593400000000003</v>
@@ -2368,7 +2374,7 @@
         <v>28</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H42" s="16">
         <v>184.9444</v>
@@ -2406,7 +2412,7 @@
         <v>28</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H43" s="16">
         <v>166.74610000000001</v>
@@ -2458,7 +2464,7 @@
         <v>28</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H45" s="16">
         <v>5.0000000000000001E-4</v>
@@ -2496,7 +2502,7 @@
         <v>28</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H46" s="16">
         <v>6.7299999999999999E-2</v>
@@ -3306,7 +3312,7 @@
     </row>
     <row r="71" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>46</v>
@@ -3324,7 +3330,7 @@
         <v>74</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -3334,25 +3340,25 @@
     </row>
     <row r="72" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E72" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="14" t="s">
+      <c r="E72" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G72" s="14" t="s">
-        <v>92</v>
+      <c r="G72" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -3361,13 +3367,27 @@
       <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="A73" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -3376,352 +3396,372 @@
     </row>
     <row r="74" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H74" s="16">
-        <v>2587.1439999999998</v>
-      </c>
-      <c r="I74" s="16">
-        <v>2997.8051</v>
-      </c>
-      <c r="J74" s="16">
-        <v>2589.886</v>
-      </c>
-      <c r="K74">
-        <v>2532.9160000000002</v>
-      </c>
-      <c r="L74">
-        <v>3216.6961999999999</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H75" s="16">
-        <v>3371.7710000000002</v>
-      </c>
-      <c r="I75" s="16">
-        <v>3831.4337</v>
-      </c>
-      <c r="J75" s="16">
-        <v>3374.3874000000001</v>
-      </c>
-      <c r="K75">
-        <v>3309.9659999999999</v>
-      </c>
-      <c r="L75">
-        <v>4075.6783999999998</v>
-      </c>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="H76" s="16">
-        <v>7927.5046000000002</v>
+        <v>2587.1439999999998</v>
       </c>
       <c r="I76" s="16">
-        <v>6644.1750000000002</v>
+        <v>2997.8051</v>
       </c>
       <c r="J76" s="16">
-        <v>7927.5046000000002</v>
+        <v>2589.886</v>
       </c>
       <c r="K76">
-        <v>8211.9550999999992</v>
+        <v>2532.9160000000002</v>
       </c>
       <c r="L76">
-        <v>6186.6490999999996</v>
+        <v>3216.6961999999999</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="H77" s="16">
-        <v>5574.6918999999998</v>
+        <v>3371.7710000000002</v>
       </c>
       <c r="I77" s="16">
-        <v>3135.7692999999999</v>
+        <v>3831.4337</v>
       </c>
       <c r="J77" s="16">
-        <v>5579.4000999999998</v>
+        <v>3374.3874000000001</v>
       </c>
       <c r="K77">
-        <v>6517.7440999999999</v>
+        <v>3309.9659999999999</v>
       </c>
       <c r="L77">
-        <v>2117.8793000000001</v>
+        <v>4075.6783999999998</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H78" s="16">
-        <v>10745.921700000001</v>
+        <v>7927.5046000000002</v>
       </c>
       <c r="I78" s="16">
-        <v>10224.4136</v>
+        <v>6644.1750000000002</v>
       </c>
       <c r="J78" s="16">
-        <v>10745.921700000001</v>
+        <v>7927.5046000000002</v>
       </c>
       <c r="K78">
-        <v>10844.952499999999</v>
+        <v>8211.9550999999992</v>
       </c>
       <c r="L78">
-        <v>9761.7330000000002</v>
+        <v>6186.6490999999996</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>103</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H79" s="16">
-        <v>9925.2494999999999</v>
+        <v>5574.6918999999998</v>
       </c>
       <c r="I79" s="16">
-        <v>5573.0412999999999</v>
+        <v>3135.7692999999999</v>
       </c>
       <c r="J79" s="16">
-        <v>9930.7656000000006</v>
+        <v>5579.4000999999998</v>
       </c>
       <c r="K79">
-        <v>10260.0533</v>
+        <v>6517.7440999999999</v>
       </c>
       <c r="L79">
-        <v>4370.9804999999997</v>
+        <v>2117.8793000000001</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H80" s="16">
+        <v>7927.5046000000002</v>
+      </c>
+      <c r="I80" s="16">
+        <v>6644.1750000000002</v>
+      </c>
+      <c r="J80" s="16">
+        <v>7927.5046000000002</v>
+      </c>
+      <c r="K80">
+        <v>8211.9550999999992</v>
+      </c>
+      <c r="L80">
+        <v>6186.6490999999996</v>
+      </c>
     </row>
     <row r="81" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H81" s="16">
+        <v>5574.6918999999998</v>
+      </c>
+      <c r="I81" s="16">
+        <v>3135.7692999999999</v>
+      </c>
+      <c r="J81" s="16">
+        <v>5579.4000999999998</v>
+      </c>
+      <c r="K81">
+        <v>6517.7440999999999</v>
+      </c>
+      <c r="L81">
+        <v>2117.8793000000001</v>
+      </c>
     </row>
     <row r="82" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="H82" s="16">
+        <v>10745.921700000001</v>
+      </c>
+      <c r="I82" s="16">
+        <v>10224.4136</v>
+      </c>
+      <c r="J82" s="16">
+        <v>10745.921700000001</v>
+      </c>
+      <c r="K82">
+        <v>10844.952499999999</v>
+      </c>
+      <c r="L82">
+        <v>9761.7330000000002</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="H83" s="16">
+        <v>9925.2494999999999</v>
+      </c>
+      <c r="I83" s="16">
+        <v>5573.0412999999999</v>
+      </c>
+      <c r="J83" s="16">
+        <v>9930.7656000000006</v>
+      </c>
+      <c r="K83">
+        <v>10260.0533</v>
+      </c>
+      <c r="L83">
+        <v>4370.9804999999997</v>
+      </c>
     </row>
     <row r="84" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
+      <c r="A84" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -3730,50 +3770,54 @@
     </row>
     <row r="85" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H85" s="16">
-        <v>6.7295999999999996</v>
-      </c>
-      <c r="I85" s="16">
-        <v>18.209299999999999</v>
-      </c>
-      <c r="J85" s="16">
-        <v>6.7733999999999996</v>
-      </c>
-      <c r="K85">
-        <v>3.5562999999999998</v>
-      </c>
-      <c r="L85">
-        <v>7.6878000000000002</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
     </row>
     <row r="86" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
+      <c r="A86" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
@@ -3782,25 +3826,25 @@
     </row>
     <row r="87" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -3810,25 +3854,25 @@
     </row>
     <row r="88" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -3838,25 +3882,25 @@
     </row>
     <row r="89" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -3865,27 +3909,13 @@
       <c r="L89" s="3"/>
     </row>
     <row r="90" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>120</v>
-      </c>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -3894,31 +3924,41 @@
     </row>
     <row r="91" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H91" s="16">
+        <v>6.7295999999999996</v>
+      </c>
+      <c r="I91" s="16">
+        <v>18.209299999999999</v>
+      </c>
+      <c r="J91" s="16">
+        <v>6.7733999999999996</v>
+      </c>
+      <c r="K91">
+        <v>3.5562999999999998</v>
+      </c>
+      <c r="L91">
+        <v>7.6878000000000002</v>
+      </c>
     </row>
     <row r="92" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -3936,25 +3976,25 @@
     </row>
     <row r="93" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -3964,25 +4004,25 @@
     </row>
     <row r="94" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -3992,25 +4032,25 @@
     </row>
     <row r="95" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F95" s="14" t="s">
         <v>74</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -4020,25 +4060,25 @@
     </row>
     <row r="96" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B96" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F96" s="14" t="s">
+      <c r="C96" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F96" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G96" s="14" t="s">
-        <v>131</v>
+      <c r="G96" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -4047,13 +4087,27 @@
       <c r="L96" s="3"/>
     </row>
     <row r="97" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="A97" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -4061,27 +4115,13 @@
       <c r="L97" s="3"/>
     </row>
     <row r="98" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G98" s="14" t="s">
-        <v>133</v>
-      </c>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -4089,13 +4129,27 @@
       <c r="L98" s="3"/>
     </row>
     <row r="99" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
+      <c r="A99" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -4104,153 +4158,293 @@
     </row>
     <row r="100" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H100" s="16">
-        <v>3.8160599999999998</v>
-      </c>
-      <c r="I100" s="16">
-        <v>3.92754</v>
-      </c>
-      <c r="J100" s="16">
-        <v>3.8160599999999998</v>
-      </c>
-      <c r="K100">
-        <v>4.0979400000000004</v>
-      </c>
-      <c r="L100">
-        <v>3.9694199999999999</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
     </row>
     <row r="101" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E101" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H101" s="16">
-        <v>9.0234000000000005</v>
-      </c>
-      <c r="I101" s="16">
-        <v>11.540190000000001</v>
-      </c>
-      <c r="J101" s="16">
-        <v>9.0192800000000002</v>
-      </c>
-      <c r="K101">
-        <v>8.4071800000000003</v>
-      </c>
-      <c r="L101">
-        <v>13.09352</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
     </row>
     <row r="102" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F102" s="14" t="s">
         <v>74</v>
       </c>
       <c r="G102" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H106" s="16">
+        <v>3.8160599999999998</v>
+      </c>
+      <c r="I106" s="16">
+        <v>3.92754</v>
+      </c>
+      <c r="J106" s="16">
+        <v>3.8160599999999998</v>
+      </c>
+      <c r="K106">
+        <v>4.0979400000000004</v>
+      </c>
+      <c r="L106">
+        <v>3.9694199999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H107" s="16">
+        <v>9.0234000000000005</v>
+      </c>
+      <c r="I107" s="16">
+        <v>11.540190000000001</v>
+      </c>
+      <c r="J107" s="16">
+        <v>9.0192800000000002</v>
+      </c>
+      <c r="K107">
+        <v>8.4071800000000003</v>
+      </c>
+      <c r="L107">
+        <v>13.09352</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D108" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H102" s="16">
+      <c r="E108" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H108" s="16">
         <v>24.45495</v>
       </c>
-      <c r="I102" s="16">
+      <c r="I108" s="16">
         <v>32.115299999999998</v>
       </c>
-      <c r="J102" s="16">
+      <c r="J108" s="16">
         <v>24.45495</v>
       </c>
-      <c r="K102">
+      <c r="K108">
         <v>21.699919999999999</v>
       </c>
-      <c r="L102">
+      <c r="L108">
         <v>34.323300000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B103" s="15" t="s">
+    <row r="109" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E103" s="15" t="s">
+      <c r="C109" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E109" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="F109" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G103" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H103" s="16">
+      <c r="G109" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H109" s="16">
         <v>45.18683</v>
       </c>
-      <c r="I103" s="16">
+      <c r="I109" s="16">
         <v>62.286200000000001</v>
       </c>
-      <c r="J103" s="16">
+      <c r="J109" s="16">
         <v>45.276060000000001</v>
       </c>
-      <c r="K103">
+      <c r="K109">
         <v>40.492989999999999</v>
       </c>
-      <c r="L103">
+      <c r="L109">
         <v>66.184269999999998</v>
       </c>
     </row>
